--- a/fubon_ui/public/demoData/testDownload.xlsx
+++ b/fubon_ui/public/demoData/testDownload.xlsx
@@ -1,26 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LaLa\FubonUI\fubon_ui\public\demoData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC0F920-D203-4F45-89D8-56484DE3BFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
+  <si>
+    <t>類別</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>發布日期</t>
+  </si>
+  <si>
+    <t>處理期限</t>
+  </si>
+  <si>
+    <t>通知/照會對象</t>
+  </si>
+  <si>
+    <t>通知/照會單號</t>
+  </si>
+  <si>
+    <t>處理狀態</t>
+  </si>
+  <si>
+    <t>核保</t>
+  </si>
+  <si>
+    <t>一年定期團體保險調整保費明細表</t>
+  </si>
+  <si>
+    <t>110/06/01</t>
+  </si>
+  <si>
+    <t>110/06/15</t>
+  </si>
+  <si>
+    <t>要保單位</t>
+  </si>
+  <si>
+    <t>取消通知書</t>
+  </si>
+  <si>
+    <t>劉飛飛(預留空間)</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>一年定期團體保險繳費明細表</t>
+  </si>
+  <si>
+    <t>補充聲明書(加疾病問券)</t>
+  </si>
+  <si>
+    <t>劉霏霏</t>
+  </si>
+  <si>
+    <t>受益人變更批註書</t>
+  </si>
+  <si>
+    <t>劉斐飛</t>
+  </si>
+  <si>
+    <t>`0000000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已處理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未處理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -28,33 +129,60 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -244,19 +372,286 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="工作表1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>